--- a/examples/by-subject_out.xlsx
+++ b/examples/by-subject_out.xlsx
@@ -19,31 +19,31 @@
     <t>Group 1</t>
   </si>
   <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Group 2</t>
+  </si>
+  <si>
     <t>B1</t>
   </si>
   <si>
-    <t>K2</t>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>Group 3</t>
   </si>
   <si>
     <t>F1</t>
-  </si>
-  <si>
-    <t>Group 2</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>Group 3</t>
-  </si>
-  <si>
-    <t>F2</t>
   </si>
 </sst>
 </file>
